--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H2">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N2">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.570446534982</v>
+        <v>1.589896400804444</v>
       </c>
       <c r="R2">
-        <v>14.134018814838</v>
+        <v>14.30906760724</v>
       </c>
       <c r="S2">
-        <v>0.005933973415328113</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="T2">
-        <v>0.005933973415328113</v>
+        <v>0.01079423211523897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.842606</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H3">
-        <v>2.527818</v>
+        <v>207.151943</v>
       </c>
       <c r="I3">
-        <v>0.0108780433452729</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J3">
-        <v>0.0108780433452729</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N3">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.308465162674</v>
+        <v>130.4222648738535</v>
       </c>
       <c r="R3">
-        <v>11.776186464066</v>
+        <v>1173.800383864682</v>
       </c>
       <c r="S3">
-        <v>0.004944069929944788</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="T3">
-        <v>0.004944069929944788</v>
+        <v>0.8854716567263378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.05064766666668</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H4">
-        <v>207.151943</v>
+        <v>23.09393</v>
       </c>
       <c r="I4">
-        <v>0.8914438519749055</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J4">
-        <v>0.8914438519749055</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N4">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>128.6963899691904</v>
+        <v>14.53987161220222</v>
       </c>
       <c r="R4">
-        <v>1158.267509722713</v>
+        <v>130.85884450982</v>
       </c>
       <c r="S4">
-        <v>0.4862826843924543</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="T4">
-        <v>0.4862826843924543</v>
+        <v>0.09871507918910553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.05064766666668</v>
+        <v>0.391393</v>
       </c>
       <c r="H5">
-        <v>207.151943</v>
+        <v>1.174179</v>
       </c>
       <c r="I5">
-        <v>0.8914438519749055</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J5">
-        <v>0.8914438519749055</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N5">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O5">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>107.2273006979657</v>
+        <v>0.7392597063273335</v>
       </c>
       <c r="R5">
-        <v>965.0457062816912</v>
+        <v>6.653337356946</v>
       </c>
       <c r="S5">
-        <v>0.4051611675824512</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="T5">
-        <v>0.4051611675824513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.007504</v>
-      </c>
-      <c r="H6">
-        <v>18.022512</v>
-      </c>
-      <c r="I6">
-        <v>0.07755687582203347</v>
-      </c>
-      <c r="J6">
-        <v>0.07755687582203347</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.863797</v>
-      </c>
-      <c r="N6">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P6">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q6">
-        <v>11.196767932688</v>
-      </c>
-      <c r="R6">
-        <v>100.770911394192</v>
-      </c>
-      <c r="S6">
-        <v>0.04230728125420102</v>
-      </c>
-      <c r="T6">
-        <v>0.04230728125420102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.007504</v>
-      </c>
-      <c r="H7">
-        <v>18.022512</v>
-      </c>
-      <c r="I7">
-        <v>0.07755687582203347</v>
-      </c>
-      <c r="J7">
-        <v>0.07755687582203347</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.552879</v>
-      </c>
-      <c r="N7">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P7">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q7">
-        <v>9.328926804016001</v>
-      </c>
-      <c r="R7">
-        <v>83.960341236144</v>
-      </c>
-      <c r="S7">
-        <v>0.03524959456783245</v>
-      </c>
-      <c r="T7">
-        <v>0.03524959456783246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.558577</v>
-      </c>
-      <c r="H8">
-        <v>4.675731</v>
-      </c>
-      <c r="I8">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="J8">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>1.863797</v>
-      </c>
-      <c r="N8">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P8">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q8">
-        <v>2.904871136869</v>
-      </c>
-      <c r="R8">
-        <v>26.143840231821</v>
-      </c>
-      <c r="S8">
-        <v>0.01097613176709143</v>
-      </c>
-      <c r="T8">
-        <v>0.01097613176709143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.558577</v>
-      </c>
-      <c r="H9">
-        <v>4.675731</v>
-      </c>
-      <c r="I9">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="J9">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.552879</v>
-      </c>
-      <c r="N9">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P9">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q9">
-        <v>2.420281493183</v>
-      </c>
-      <c r="R9">
-        <v>21.782533438647</v>
-      </c>
-      <c r="S9">
-        <v>0.009145097090696669</v>
-      </c>
-      <c r="T9">
-        <v>0.00914509709069667</v>
+        <v>0.005019031969317684</v>
       </c>
     </row>
   </sheetData>
